--- a/biology/Médecine/Communauté_professionnelle_territoriale_de_santé/Communauté_professionnelle_territoriale_de_santé.xlsx
+++ b/biology/Médecine/Communauté_professionnelle_territoriale_de_santé/Communauté_professionnelle_territoriale_de_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Communaut%C3%A9_professionnelle_territoriale_de_sant%C3%A9</t>
+          <t>Communauté_professionnelle_territoriale_de_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une communauté professionnelle territoriale de santé (CPTS) est, en France depuis 2016, une structure d'exercice coordonnée (SEC) qui permet la structuration des soins de proximité dans un territoire défini.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Communaut%C3%A9_professionnelle_territoriale_de_sant%C3%A9</t>
+          <t>Communauté_professionnelle_territoriale_de_santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle réunit des professionnels de santé du premier et du second recours et de toutes spécialités, quel que soit leur mode d'exercice : maisons et centres de santé, cabinet de groupe ou individuel, établissement médico-social comme les  établissements d'hébergement pour personnes âgées dépendantes (EHPAD)[1].
-Les professionnels des établissements hospitaliers publics ou privés peuvent participer ou contractualiser avec les CPTS[2],[3].
-Leur déploiement a pour objectif de permettre à une majorité de professionnels de santé de s'approprier le concept et la pratique de l’exercice coordonné[4] de manière que l’accès aux soins de la population soit coordonné et amélioré avec l'implication des patients eux-mêmes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle réunit des professionnels de santé du premier et du second recours et de toutes spécialités, quel que soit leur mode d'exercice : maisons et centres de santé, cabinet de groupe ou individuel, établissement médico-social comme les  établissements d'hébergement pour personnes âgées dépendantes (EHPAD).
+Les professionnels des établissements hospitaliers publics ou privés peuvent participer ou contractualiser avec les CPTS,.
+Leur déploiement a pour objectif de permettre à une majorité de professionnels de santé de s'approprier le concept et la pratique de l’exercice coordonné de manière que l’accès aux soins de la population soit coordonné et amélioré avec l'implication des patients eux-mêmes.
 </t>
         </is>
       </c>
